--- a/gams/res_sum_Q_rO_DA.xlsx
+++ b/gams/res_sum_Q_rO_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA43645-8954-4C6B-ADAE-C9E9CFAB4A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FF980-8153-44C8-A30D-5A0D90978093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{F571A32D-967C-4182-B673-5057081F6E2F}"/>
+    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{F571A32D-967C-4182-B673-5057081F6E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rO_DA.xlsx
+++ b/gams/res_sum_Q_rO_DA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6FF980-8153-44C8-A30D-5A0D90978093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213131B-293D-43ED-94A1-0B3C6C42B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="990" windowWidth="7500" windowHeight="6000" xr2:uid="{F571A32D-967C-4182-B673-5057081F6E2F}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{F571A32D-967C-4182-B673-5057081F6E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/gams/res_sum_Q_rO_DA.xlsx
+++ b/gams/res_sum_Q_rO_DA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8213131B-293D-43ED-94A1-0B3C6C42B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2660C81-DDFF-41BC-93F6-BD37D0E044CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{F571A32D-967C-4182-B673-5057081F6E2F}"/>
+    <workbookView xWindow="-16320" yWindow="795" windowWidth="16440" windowHeight="28440" xr2:uid="{81E86E4F-4350-47AE-A86D-F0202B399EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C414BA-484E-4780-8467-8761653C3A4F}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43F9FD9-EFD9-44EA-A9C1-1D97056BA0F2}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,11 +430,8 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.9158500000000003</v>
+        <v>0.39043636363636364</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
